--- a/bases/Interface_B.xlsx
+++ b/bases/Interface_B.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/olivia_domingues_germinare_org_br/Documents/Área de Trabalho/G - TECH 2/Interdisciplinar/incluses_testeAB/bases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_F25DC773A252ABDACC10484CE11864B45BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5000F9-BA38-4FB4-9937-48B32410F45F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Inscrição da Vaga</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Criação do Curso</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +374,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>612.21</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>84.4</v>
+      </c>
+      <c r="B3">
+        <v>34.4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>55.42</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>52.37</v>
+      </c>
+      <c r="B5">
+        <v>6.53</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B6">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="C6">
+        <v>23.95</v>
+      </c>
+      <c r="D6">
+        <v>4.76</v>
+      </c>
+      <c r="E6">
+        <v>38.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>614.29</v>
+      </c>
+      <c r="B7">
+        <v>4.55</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>152.88</v>
+      </c>
+      <c r="B8">
+        <v>10.66</v>
+      </c>
+      <c r="C8">
+        <v>11.61</v>
+      </c>
+      <c r="D8">
+        <v>7.5</v>
+      </c>
+      <c r="E8">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>24.54</v>
+      </c>
+      <c r="B9">
+        <v>7.07</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>33.75</v>
+      </c>
+      <c r="B10">
+        <v>3.24</v>
+      </c>
+      <c r="C10">
+        <v>22.24</v>
+      </c>
+      <c r="D10">
+        <v>8.66</v>
+      </c>
+      <c r="E10">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>92.81</v>
+      </c>
+      <c r="B11">
+        <v>7.99</v>
+      </c>
+      <c r="C11">
+        <v>12.85</v>
+      </c>
+      <c r="D11">
+        <v>25.06</v>
+      </c>
+      <c r="E11">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>20.3</v>
+      </c>
+      <c r="B12">
+        <v>5.46</v>
+      </c>
+      <c r="C12">
+        <v>15.55</v>
+      </c>
+      <c r="D12">
+        <v>7.39</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11.67</v>
+      </c>
+      <c r="B13">
+        <v>5.14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6.3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>33.15</v>
+      </c>
+      <c r="B14">
+        <v>3.67</v>
+      </c>
+      <c r="C14">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D14">
+        <v>6.03</v>
+      </c>
+      <c r="E14">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>28.39</v>
+      </c>
+      <c r="B15">
+        <v>4.66</v>
+      </c>
+      <c r="C15">
+        <v>10.7</v>
+      </c>
+      <c r="D15">
+        <v>10.33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>44.09</v>
+      </c>
+      <c r="B16">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C16">
+        <v>12.08</v>
+      </c>
+      <c r="D16">
+        <v>6.24</v>
+      </c>
+      <c r="E16">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>14.95</v>
+      </c>
+      <c r="B17">
+        <v>4.67</v>
+      </c>
+      <c r="C17">
+        <v>5.09</v>
+      </c>
+      <c r="D17">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="E17">
+        <v>66.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="B18">
+        <v>14.46</v>
+      </c>
+      <c r="C18">
+        <v>11.76</v>
+      </c>
+      <c r="D18">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E18">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>89.7</v>
+      </c>
+      <c r="B19">
+        <v>15.78</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>24.44</v>
+      </c>
+      <c r="E19">
+        <v>85.02</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>15.81</v>
+      </c>
+      <c r="B20">
+        <v>5.14</v>
+      </c>
+      <c r="C20">
+        <v>4.87</v>
+      </c>
+      <c r="D20">
+        <v>8.27</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>93.59</v>
+      </c>
+      <c r="B21">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="C21">
+        <v>47.67</v>
+      </c>
+      <c r="D21">
+        <v>18.37</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bases/Interface_B.xlsx
+++ b/bases/Interface_B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/olivia_domingues_germinare_org_br/Documents/Área de Trabalho/G - TECH 2/Interdisciplinar/incluses_testeAB/bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="11_F25DC773A252ABDACC10484CE11864B45BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5000F9-BA38-4FB4-9937-48B32410F45F}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="11_F25DC773A252ABDACC10484CE11864B45BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B959AA-8BDA-499F-87BF-E08D4F648546}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,14 +56,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,7 +86,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,343 +398,444 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B2">
-        <v>612.21</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>23.95</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>38.11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>84.4</v>
+        <v>152.88</v>
       </c>
       <c r="B3">
-        <v>34.4</v>
+        <v>10.66</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>55.42</v>
+        <v>33.75</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>22.24</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>52.37</v>
+        <v>92.81</v>
       </c>
       <c r="B5">
-        <v>6.53</v>
+        <v>7.99</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>25.06</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>20.399999999999999</v>
+        <v>33.15</v>
       </c>
       <c r="B6">
-        <v>18.079999999999998</v>
+        <v>3.67</v>
       </c>
       <c r="C6">
-        <v>23.95</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="D6">
-        <v>4.76</v>
+        <v>6.03</v>
       </c>
       <c r="E6">
-        <v>38.11</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>614.29</v>
+        <v>44.09</v>
       </c>
       <c r="B7">
-        <v>4.55</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>12.08</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="E7">
-        <v>17.61</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>152.88</v>
+        <v>44.09</v>
       </c>
       <c r="B8">
-        <v>10.66</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C8">
-        <v>11.61</v>
+        <v>12.08</v>
       </c>
       <c r="D8">
-        <v>7.5</v>
+        <v>6.24</v>
       </c>
       <c r="E8">
-        <v>28.05</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>24.54</v>
+        <v>14.95</v>
       </c>
       <c r="B9">
-        <v>7.07</v>
+        <v>4.67</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>66.98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>33.75</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="B10">
-        <v>3.24</v>
-      </c>
-      <c r="C10">
-        <v>22.24</v>
+        <v>14.46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11.76</v>
       </c>
       <c r="D10">
-        <v>8.66</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E10">
-        <v>12.25</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>92.81</v>
+        <v>6.32</v>
       </c>
       <c r="B11">
-        <v>7.99</v>
+        <v>3.85</v>
       </c>
       <c r="C11">
-        <v>12.85</v>
+        <v>11.07</v>
       </c>
       <c r="D11">
-        <v>25.06</v>
+        <v>6.44</v>
       </c>
       <c r="E11">
-        <v>25.41</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>20.3</v>
+        <v>28.13</v>
       </c>
       <c r="B12">
-        <v>5.46</v>
+        <v>7.25</v>
       </c>
       <c r="C12">
-        <v>15.55</v>
+        <v>7.93</v>
       </c>
       <c r="D12">
-        <v>7.39</v>
+        <v>15.06</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11.67</v>
+        <v>46.3</v>
       </c>
       <c r="B13">
-        <v>5.14</v>
+        <v>3.85</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="D13">
-        <v>6.3</v>
+        <v>4.05</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>33.729999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>33.15</v>
+        <v>62.18</v>
       </c>
       <c r="B14">
-        <v>3.67</v>
+        <v>3.98</v>
       </c>
       <c r="C14">
-        <v>9.7799999999999994</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="D14">
-        <v>6.03</v>
+        <v>6.13</v>
       </c>
       <c r="E14">
-        <v>24.05</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>28.39</v>
+        <v>23.49</v>
       </c>
       <c r="B15">
-        <v>4.66</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="C15">
-        <v>10.7</v>
+        <v>9.98</v>
       </c>
       <c r="D15">
-        <v>10.33</v>
+        <v>6.13</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>19.190000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>44.09</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="B16">
-        <v>4.1900000000000004</v>
+        <v>3.48</v>
       </c>
       <c r="C16">
-        <v>12.08</v>
+        <v>6.29</v>
       </c>
       <c r="D16">
-        <v>6.24</v>
+        <v>5.05</v>
       </c>
       <c r="E16">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>14.95</v>
+        <v>4.53</v>
       </c>
       <c r="B17">
-        <v>4.67</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C17">
+        <v>13.3</v>
+      </c>
+      <c r="D17">
+        <v>6.27</v>
+      </c>
+      <c r="E17">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>29.01</v>
+      </c>
+      <c r="B18">
+        <v>16.59</v>
+      </c>
+      <c r="C18">
+        <v>10.15</v>
+      </c>
+      <c r="D18">
+        <v>5.21</v>
+      </c>
+      <c r="E18">
+        <v>22.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>21.1</v>
+      </c>
+      <c r="B19">
+        <v>6.65</v>
+      </c>
+      <c r="C19">
+        <v>7.05</v>
+      </c>
+      <c r="D19">
+        <v>5.55</v>
+      </c>
+      <c r="E19">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>14.77</v>
+      </c>
+      <c r="B20">
+        <v>5.67</v>
+      </c>
+      <c r="C20">
+        <v>4.82</v>
+      </c>
+      <c r="D20">
+        <v>5.65</v>
+      </c>
+      <c r="E20">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>26.21</v>
+      </c>
+      <c r="B21">
+        <v>7.06</v>
+      </c>
+      <c r="C21">
         <v>5.09</v>
       </c>
-      <c r="D17">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="E17">
-        <v>66.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="B18">
-        <v>14.46</v>
-      </c>
-      <c r="C18">
-        <v>11.76</v>
-      </c>
-      <c r="D18">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="E18">
-        <v>30.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>89.7</v>
-      </c>
-      <c r="B19">
-        <v>15.78</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>24.44</v>
-      </c>
-      <c r="E19">
-        <v>85.02</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>15.81</v>
-      </c>
-      <c r="B20">
-        <v>5.14</v>
-      </c>
-      <c r="C20">
-        <v>4.87</v>
-      </c>
-      <c r="D20">
-        <v>8.27</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>93.59</v>
-      </c>
-      <c r="B21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="C21">
-        <v>47.67</v>
-      </c>
       <c r="D21">
-        <v>18.37</v>
+        <v>10.61</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>23.57</v>
+      </c>
+      <c r="B22">
+        <v>4.47</v>
+      </c>
+      <c r="C22">
+        <v>10.07</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>43.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>37.69</v>
+      </c>
+      <c r="B23">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C23">
+        <v>10.53</v>
+      </c>
+      <c r="D23">
+        <v>8.67</v>
+      </c>
+      <c r="E23">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>35.04</v>
+      </c>
+      <c r="B24">
+        <v>6.17</v>
+      </c>
+      <c r="C24">
+        <v>10.87</v>
+      </c>
+      <c r="D24">
+        <v>5.49</v>
+      </c>
+      <c r="E24">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>49.98</v>
+      </c>
+      <c r="B25">
+        <v>6.78</v>
+      </c>
+      <c r="C25">
+        <v>16.66</v>
+      </c>
+      <c r="D25">
+        <v>3.18</v>
+      </c>
+      <c r="E25">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25.32</v>
+      </c>
+      <c r="B26">
+        <v>3.44</v>
+      </c>
+      <c r="C26">
+        <v>2.88</v>
+      </c>
+      <c r="D26">
+        <v>5.59</v>
+      </c>
+      <c r="E26">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24.55</v>
+      </c>
+      <c r="B27">
+        <v>11.49</v>
+      </c>
+      <c r="C27">
+        <v>3.79</v>
+      </c>
+      <c r="D27">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E27">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>
